--- a/result.xlsx
+++ b/result.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huytruong/Project/Personal/CS106/multiagent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446DC3B1-6510-0B44-BE3D-7A6A0CC50828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917EF3DE-1B33-BF43-BF17-5EF423E1FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31700" yWindow="5460" windowWidth="25600" windowHeight="28300" xr2:uid="{2DE6BD12-30D6-4C4C-9F67-279B895046A7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{2DE6BD12-30D6-4C4C-9F67-279B895046A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimax" sheetId="1" r:id="rId1"/>
+    <sheet name="AlphaBeta" sheetId="3" r:id="rId2"/>
+    <sheet name="Expectimax" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Level</t>
   </si>
@@ -87,7 +89,9 @@
 avg of 5 times</t>
   </si>
   <si>
-    <t>-Inf, pacman bị loop vô tận</t>
+    <t>Depth: 3
+Random ghost
+avg of 5 times</t>
   </si>
 </sst>
 </file>
@@ -153,23 +157,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>29595</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>111549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2236600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>578356</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C817C16C-15B9-557B-A736-788DCD9C6D86}"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25805</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A2BDB0-8B95-D325-1C89-295C27EDD49E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -185,35 +189,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1639340" y="516008"/>
-          <a:ext cx="2207005" cy="466807"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>64713</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16179</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2261813</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>574979</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A67D7C-30A4-4384-0A29-BE2D50223D31}"/>
+          <a:off x="4699809" y="7773694"/>
+          <a:ext cx="2120900" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179E81B6-8556-BCAF-D519-9A1B1CFDCFAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -229,52 +233,316 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1674458" y="1197198"/>
-          <a:ext cx="2197100" cy="558800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2006600</xdr:colOff>
-      <xdr:row>2</xdr:row>
+          <a:off x="4699809" y="4991019"/>
+          <a:ext cx="2082800" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13105</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F30695-1872-0CD7-CF47-C44A91C0EDC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="4481401"/>
+          <a:ext cx="2108200" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25805</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A31E7A-5115-D2D2-0A95-F1E4B733ACEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="5549172"/>
+          <a:ext cx="2120900" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD31DE1-165F-98DE-D475-03348BA905FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="6172038"/>
+          <a:ext cx="1866900" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1968500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A2C3C4-2A1F-FA73-F19B-341A8C656963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="6948599"/>
+          <a:ext cx="1968500" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38505</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38AD6BA-52E7-588D-897B-7459A9D0AB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="3907070"/>
+          <a:ext cx="2133600" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B37559F-EFDA-EDE1-6B2A-67E80F929CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="3146688"/>
+          <a:ext cx="1930400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210D17A6-D22E-A18F-6D93-962ABB084660}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699809" y="404459"/>
-          <a:ext cx="2006600" cy="457200"/>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2EF952-BEC1-3C2B-EF4C-4FB71D03059C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="2483376"/>
+          <a:ext cx="2082800" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -294,14 +562,698 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>38505</xdr:colOff>
       <xdr:row>3</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B4B0A2-D61C-FBB7-E501-B7EF61B667D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="1836242"/>
+          <a:ext cx="2133600" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93D56CF-E0B4-1D67-7418-2A87D22ECD9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="1059682"/>
+          <a:ext cx="2006600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7DDA03-B2F9-C4F5-C888-E51A106E8440}"/>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB034884-7167-F136-5142-429E94DC66FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="1059682"/>
+          <a:ext cx="2057400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22790AD-8CE3-89E3-ADD8-C36D025E5984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="1836242"/>
+          <a:ext cx="2146300" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F74E3F3-52F1-7779-4D95-830A6112238F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="2483376"/>
+          <a:ext cx="2108200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4737CD8B-BA99-8C31-DEA9-FA8CCC9DB8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="3146688"/>
+          <a:ext cx="2133600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2120900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>469900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2441260-8C49-605E-7138-D16981F78EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="3907070"/>
+          <a:ext cx="2120900" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4539C6-2ED9-E47E-E2B8-9EE67EEAB290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="4481401"/>
+          <a:ext cx="1943100" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAAD6084-63BB-AC15-9A3C-217E45E74525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="4991019"/>
+          <a:ext cx="2032000" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72048629-5779-592A-8009-4BC287DC12B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="5549172"/>
+          <a:ext cx="2044700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5669F0-668C-B5FD-DF01-3A7F347EBEDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="6172038"/>
+          <a:ext cx="1930400" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1993900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F5DAA4-A1A3-8AA9-0027-E08A7C6D34C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="6948599"/>
+          <a:ext cx="1993900" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5585BFC-5CA5-4527-ABA3-3830C577FE7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="7773694"/>
+          <a:ext cx="2044700" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2120900" cy="482600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA20B3F-B5B5-A648-B21F-6D607C5FE077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="7773694"/>
+          <a:ext cx="2120900" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2082800" cy="419100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178A40F9-DA02-F94F-B6A5-C997658A198D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="4991019"/>
+          <a:ext cx="2082800" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2108200" cy="482600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0EF7BD-6602-5D48-BBBE-E7626EF4A823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="4481401"/>
+          <a:ext cx="2108200" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2120900" cy="431800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB37E3A-1FDF-6546-B5BB-D18A450E0772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -317,7 +1269,124 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4699809" y="1181019"/>
+          <a:off x="4699809" y="5549172"/>
+          <a:ext cx="2120900" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1866900" cy="431800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C445BA0-E7AF-8C40-A599-05857A7252A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="6172038"/>
+          <a:ext cx="1866900" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1968500" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6646AAC-0161-6B4D-9C38-FB376361206E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="6948599"/>
+          <a:ext cx="1968500" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2133600" cy="431800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA57FBE9-9839-974D-AF55-469D850D6DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="3907070"/>
           <a:ext cx="2133600" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -326,26 +1395,1765 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="431800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C20E4D-263D-BE48-9651-71877F46168F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="3146688"/>
+          <a:ext cx="1930400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
+    <xdr:ext cx="2082800" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C3BD22-AB78-664B-B313-336E99C6B6FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="2483376"/>
+          <a:ext cx="2082800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2133600" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88585D30-7121-0D48-8EF3-2C04734C71D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="1836242"/>
+          <a:ext cx="2133600" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2006600" cy="419100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D890C9B8-575F-9B42-8A5A-D9D8BFB41493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699809" y="1059682"/>
+          <a:ext cx="2006600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2057400" cy="431800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1585DAA-CE01-314A-B810-435E9DEECEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="1059682"/>
+          <a:ext cx="2057400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2146300" cy="431800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C29E1E-5B24-3649-90A0-D199224C5EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="1836242"/>
+          <a:ext cx="2146300" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2108200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABD9641-72CC-2D49-9AAF-8B6D14DACE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="2483376"/>
+          <a:ext cx="2108200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2133600" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFF740A-B0E8-834B-A382-2FE0CE23E117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="3146688"/>
+          <a:ext cx="2133600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2120900" cy="469900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3490554D-4933-1B49-B462-BD358561E1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="3907070"/>
+          <a:ext cx="2120900" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1943100" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D35F528-2D51-D64B-97A8-1DCB543F1314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="4481401"/>
+          <a:ext cx="1943100" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2032000" cy="431800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D2E33D-8F41-4B46-A1F4-3813680C7E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="4991019"/>
+          <a:ext cx="2032000" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2044700" cy="419100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C48D9C2-5BF8-2F4A-B9BE-8B12513646A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="5549172"/>
+          <a:ext cx="2044700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C3CA54-0AC7-524D-A060-E4DD6F050EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="6172038"/>
+          <a:ext cx="1930400" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1993900" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BB5956-2272-FC4A-BAFF-D8FE64150FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="6948599"/>
+          <a:ext cx="1993900" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2044700" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97DC7B5-0B3B-5645-9B5C-36802F9A3C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609745" y="7773694"/>
+          <a:ext cx="2044700" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3AC542-B319-01DF-566D-DA524D9070E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1617350" y="7750256"/>
+          <a:ext cx="2019300" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1970BD04-8725-7FF0-7D3B-8A1A12797B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1617350" y="6925299"/>
+          <a:ext cx="2146300" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7613B304-F1ED-D426-E952-98A2CB791842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1617350" y="6154615"/>
+          <a:ext cx="1943100" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>556638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F242D543-98D4-B055-1586-B749CBDAA2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="5533957"/>
+          <a:ext cx="2095500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98265F26-E921-8179-E8C3-F4FDB5A11045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="4977319"/>
+          <a:ext cx="2184400" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1993900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFF96B5-F4FB-F5CD-C072-1438D8B68C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="4469319"/>
+          <a:ext cx="1993900" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF487F47-4ABA-9EDB-AB2C-E99F87B46D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="3896468"/>
+          <a:ext cx="2006600" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E3C25F-B59A-5A74-ADB9-906D09539519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="3134468"/>
+          <a:ext cx="2006600" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2070100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68829F85-1A87-9917-5932-C7212D7E7130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="2475149"/>
+          <a:ext cx="2070100" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>772808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35AF821C-52CD-0C09-7D17-27C413BD62E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="1826638"/>
+          <a:ext cx="2044700" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FC6A3F-3FEB-BA71-DB9C-E337CAE048A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610468" y="1053830"/>
+          <a:ext cx="2032000" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0430AB-61B2-9699-9632-6AA70D3AE177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="1053830"/>
+          <a:ext cx="1943100" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>772808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21811183-724A-C0A2-A9E2-36AD6A9653DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="1826638"/>
+          <a:ext cx="2006600" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36749</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>444500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2334BB9-7990-5E64-2C15-B22DB93E70A1}"/>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E72A7CA-163C-1D3F-16E5-02E2E90ABCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="2475149"/>
+          <a:ext cx="2133600" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DF216E-8A89-8821-8C43-F09317AE10B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="3134468"/>
+          <a:ext cx="2019300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F103E99-640B-3FC3-D8B6-455197583FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="3896468"/>
+          <a:ext cx="2082800" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3379AB-E547-3209-9576-728F979221DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="4469319"/>
+          <a:ext cx="2082800" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBA9B08-6C51-482D-0F17-65273DD870CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="4977319"/>
+          <a:ext cx="2095500" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>556638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32164B51-82AB-0B43-D673-E80051CED9C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="5533957"/>
+          <a:ext cx="2082800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65FE6FB-6A50-1B75-446D-18335677F23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="6155447"/>
+          <a:ext cx="1905000" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>772808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49449</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CAEB88-F565-C2E8-F858-A5AAAA405EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="6928255"/>
+          <a:ext cx="2146300" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>826851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>469900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB77494D-A53B-B5D3-B994-139B00114D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696298" y="7755106"/>
+          <a:ext cx="2044700" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8766A40-F628-CF49-866A-647AAC8B9A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="6934200"/>
+          <a:ext cx="2146300" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D2E317-195B-9E4D-8437-7845465B2608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="6159500"/>
+          <a:ext cx="1943100" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>556638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6408E1-C2A7-E14E-873A-797FA880C529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="5535038"/>
+          <a:ext cx="2095500" cy="433962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF3C209-ED06-91C3-5FC6-AEE556EAB05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="7760533"/>
+          <a:ext cx="2197100" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61418</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B40EE6F-50F8-6310-BCD2-709EA339721E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -361,8 +3169,316 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609745" y="1828153"/>
-          <a:ext cx="2006600" cy="444500"/>
+          <a:off x="4700041" y="7760533"/>
+          <a:ext cx="2159000" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1955800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26FA1FB-799A-5177-D0A7-36744598EBDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="6932951"/>
+          <a:ext cx="1955800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BC5BA0-E754-6CF4-C540-0215E07492C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="6157418"/>
+          <a:ext cx="1943100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36018</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0042B575-858A-2266-B9F2-6A5FD001BE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="5532828"/>
+          <a:ext cx="2133600" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD326F6C-8774-CB6F-DA4F-C03E5940116C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="4975902"/>
+          <a:ext cx="2095500" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23318</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00D8248-4FB9-2CDD-5C5E-E0CB4FB75E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="4465820"/>
+          <a:ext cx="2120900" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23318</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA016B08-4672-AE3F-B4C7-6D7F2948737D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="3893279"/>
+          <a:ext cx="2120900" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693A8342-F9CE-F1F6-C06E-8227D514C419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="3133361"/>
+          <a:ext cx="2019300" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -379,210 +3495,430 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13105</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>444500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29559C3E-707C-28F5-51EC-7232317374E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699809" y="1828153"/>
-          <a:ext cx="2108200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4970C53-1E12-46C4-4477-3C570768B707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="2472336"/>
+          <a:ext cx="2057400" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>775533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2F7C77-2340-EF23-4C30-0AAA971203D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="1826926"/>
+          <a:ext cx="2095500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FE3C64-E932-481E-8586-21FCDE2DA19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700041" y="1051393"/>
+          <a:ext cx="2044700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91612BE1-FD5D-2C30-9290-13D22E3DD2A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="1051393"/>
+          <a:ext cx="2108200" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>775533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384D41BA-8E87-8EBC-895C-ACFF6B45A08A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="1826926"/>
+          <a:ext cx="1981200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DEFD89E-4D20-8E12-5306-DD0409F2017F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="2472336"/>
+          <a:ext cx="2032000" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F276162-379F-1F87-21DA-A36F137C7E57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699809" y="3146688"/>
-          <a:ext cx="2019300" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>406400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E639AA27-3EC4-B60A-021B-C6B64079F281}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609745" y="3146688"/>
-          <a:ext cx="1943100" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEC99AA-34E0-26D6-70C2-2D122E07E1EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="3133361"/>
+          <a:ext cx="2044700" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25805</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B03CB7-2DD0-6A6D-A64C-312B55D5BBDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699809" y="3907070"/>
-          <a:ext cx="2120900" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A148A5C-F080-26EA-B9DE-336D622C75BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="3893279"/>
+          <a:ext cx="2095500" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25805</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>444500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8ED5FA6-DF5E-1151-8691-2BC1D900783B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699809" y="4481401"/>
-          <a:ext cx="2120900" cy="444500"/>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DCF5AA-F597-3A63-F37C-BE76AA934FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="4465820"/>
+          <a:ext cx="2044700" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E01EF3-1D89-9BB1-2D78-34F8592F9EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="4975902"/>
+          <a:ext cx="2171700" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,8 +4229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F64AD-C16D-F144-A8E2-C5150EEF78B4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" zoomScale="271" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,9 +4283,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -966,23 +4300,220 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B05E04-D107-594C-8634-40530345A545}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="235" zoomScaleNormal="157" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD90595A-8004-2843-938E-7EDC7F741662}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="244" zoomScaleNormal="157" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huytruong/Project/Personal/CS106/multiagent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917EF3DE-1B33-BF43-BF17-5EF423E1FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F05632-5BBE-2749-8337-41237CA4F59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{2DE6BD12-30D6-4C4C-9F67-279B895046A7}"/>
+    <workbookView xWindow="30240" yWindow="-8660" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{2DE6BD12-30D6-4C4C-9F67-279B895046A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimax" sheetId="1" r:id="rId1"/>
@@ -2963,138 +2963,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>444500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8766A40-F628-CF49-866A-647AAC8B9A9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1612900" y="6934200"/>
-          <a:ext cx="2146300" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D2E317-195B-9E4D-8437-7845465B2608}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1612900" y="6159500"/>
-          <a:ext cx="1943100" cy="431800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>556638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6408E1-C2A7-E14E-873A-797FA880C529}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1612900" y="5535038"/>
-          <a:ext cx="2095500" cy="433962"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3118,7 +2986,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3162,7 +3030,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3206,7 +3074,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3250,7 +3118,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3294,7 +3162,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3338,7 +3206,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3382,7 +3250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3426,7 +3294,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3470,7 +3338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3514,7 +3382,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3558,7 +3426,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3602,7 +3470,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3646,7 +3514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3690,7 +3558,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3734,7 +3602,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3778,7 +3646,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3822,7 +3690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3866,7 +3734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3910,7 +3778,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3919,6 +3787,138 @@
         <a:xfrm>
           <a:off x="1613525" y="4975902"/>
           <a:ext cx="2171700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB26924-6C0A-F649-728A-F94C1A2FEFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="5532828"/>
+          <a:ext cx="2057400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E35CE7-F28B-0D3A-5019-3EF270BF4DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="6157418"/>
+          <a:ext cx="1943100" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A7A1A1-C5CC-BC6D-6408-138F41B1153D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613525" y="6932951"/>
+          <a:ext cx="2057400" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4229,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F64AD-C16D-F144-A8E2-C5150EEF78B4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="271" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="271" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4326,7 +4326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B05E04-D107-594C-8634-40530345A545}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="235" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="235" zoomScaleNormal="157" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
@@ -4424,9 +4424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD90595A-8004-2843-938E-7EDC7F741662}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="244" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="157" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
